--- a/Suppliers/file/suppliers/NanQiao.xlsx
+++ b/Suppliers/file/suppliers/NanQiao.xlsx
@@ -32299,7 +32299,7 @@
         <v>45069</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>4644.01</v>
+        <v>4643.99</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>4</v>
@@ -33274,7 +33274,7 @@
         <v>45102</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>378.01</v>
+        <v>377.99</v>
       </c>
       <c r="J37" s="2" t="n">
         <v>0</v>
